--- a/metadata/2022/hwb_metadata_s3_row_names.xlsx
+++ b/metadata/2022/hwb_metadata_s3_row_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/victoria_dunn_gov_scot/Documents/Git Repos/HWB Rap Project/hwb-census/metadata/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{F0307F50-F155-4022-A2CC-3C4EAB4BC1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1308E60-0733-41B1-A3AE-9353DB510AC6}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{F0307F50-F155-4022-A2CC-3C4EAB4BC1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50E1B4D-4711-48FA-BEAD-7267766C0348}"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-16200" windowWidth="14400" windowHeight="15600" xr2:uid="{85194224-BF1F-4565-B311-C21EFF2A91C1}"/>
+    <workbookView xWindow="14940" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{85194224-BF1F-4565-B311-C21EFF2A91C1}"/>
   </bookViews>
   <sheets>
     <sheet name="S3" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Once a week</t>
   </si>
   <si>
-    <t>At least once a month but not every week</t>
-  </si>
-  <si>
     <t>Less than once a month</t>
   </si>
   <si>
@@ -978,6 +975,9 @@
   </si>
   <si>
     <t>my_area_good_place</t>
+  </si>
+  <si>
+    <t>Once a month</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1021,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1343,549 +1343,551 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6771D5-6583-4B39-8B6D-7E2B4286701F}">
   <dimension ref="A1:FU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:177" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1933,16 +1935,16 @@
         <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
         <v>0</v>
@@ -1954,46 +1956,46 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="s">
         <v>0</v>
@@ -2005,52 +2007,52 @@
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AS2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AV2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AW2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AX2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AY2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AZ2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BA2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BB2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BC2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BD2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BE2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BF2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BG2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BH2" t="s">
         <v>1</v>
@@ -2059,139 +2061,139 @@
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BK2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BL2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BM2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BN2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BO2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BP2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BQ2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BR2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BS2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BT2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BU2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BV2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BW2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BX2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BY2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BZ2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CA2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CB2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CC2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CD2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CE2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CF2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CG2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CH2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CI2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CJ2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CK2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CL2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CM2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CN2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CO2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CP2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CQ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CR2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CS2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CT2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CU2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CV2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CW2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CX2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CY2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CZ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DA2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DB2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DC2" t="s">
         <v>22</v>
@@ -2224,195 +2226,195 @@
         <v>0</v>
       </c>
       <c r="DM2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DO2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DP2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DQ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DR2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DS2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DT2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DU2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DV2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DW2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DX2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DY2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DZ2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="EA2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EB2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="EC2" t="s">
         <v>7</v>
       </c>
       <c r="ED2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EE2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EF2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EG2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EH2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EI2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EJ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EK2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EL2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EM2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EN2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EO2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EP2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EQ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="ER2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="ES2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="ET2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EU2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EV2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EW2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EX2" t="s">
         <v>27</v>
       </c>
       <c r="EY2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="EZ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="FA2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="FB2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="FC2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="FD2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="FE2" t="s">
         <v>27</v>
       </c>
       <c r="FF2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="FG2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FH2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FI2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FJ2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FK2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FL2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FM2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FN2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FO2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FP2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FQ2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FR2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FS2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FT2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="FU2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -2460,16 +2462,16 @@
         <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
         <v>1</v>
@@ -2481,46 +2483,46 @@
         <v>1</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AJ3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AL3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AM3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO3" t="s">
         <v>1</v>
@@ -2532,52 +2534,52 @@
         <v>1</v>
       </c>
       <c r="AR3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AU3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AW3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AX3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AY3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AZ3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BA3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BB3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BD3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BE3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BF3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BG3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BH3" t="s">
         <v>3</v>
@@ -2586,142 +2588,142 @@
         <v>3</v>
       </c>
       <c r="BJ3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BK3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BL3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BM3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BN3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BO3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BP3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BQ3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BR3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BS3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BT3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BV3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BW3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BX3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BY3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BZ3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CA3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CB3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CC3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CD3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CE3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CF3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CG3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CH3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CI3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CJ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DC3" t="s">
         <v>87</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>88</v>
       </c>
       <c r="DD3" t="s">
         <v>1</v>
@@ -2751,192 +2753,192 @@
         <v>1</v>
       </c>
       <c r="DM3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="DN3" t="s">
+        <v>50</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>97</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>99</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>103</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>47</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>47</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>47</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>92</v>
+      </c>
+      <c r="EY3" t="s">
         <v>51</v>
       </c>
-      <c r="DO3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>94</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>98</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>104</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>48</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>48</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>48</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>93</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>52</v>
-      </c>
       <c r="EZ3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="FA3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="FB3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="FC3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="FD3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="FE3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FF3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="FG3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FH3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FI3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FJ3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FK3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FL3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FM3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FN3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FO3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FP3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FQ3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FR3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FS3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FT3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="FU3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2987,13 +2989,13 @@
         <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
         <v>5</v>
@@ -3008,46 +3010,46 @@
         <v>2</v>
       </c>
       <c r="AA4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="s">
         <v>2</v>
@@ -3059,52 +3061,52 @@
         <v>2</v>
       </c>
       <c r="AR4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AU4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AV4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AX4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AY4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AZ4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BA4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BB4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BC4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BD4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BE4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BF4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BG4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BH4" t="s">
         <v>20</v>
@@ -3113,88 +3115,88 @@
         <v>20</v>
       </c>
       <c r="BJ4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BK4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BL4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BM4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BN4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BO4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BP4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BQ4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BS4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BT4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BV4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BW4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BX4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BY4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BZ4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CA4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CB4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CC4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CD4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CE4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CF4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CG4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CH4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CI4" t="s">
         <v>5</v>
       </c>
       <c r="CJ4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CK4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CL4" t="s">
         <v>6</v>
@@ -3248,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="DC4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="DD4" t="s">
         <v>2</v>
@@ -3278,10 +3280,10 @@
         <v>2</v>
       </c>
       <c r="DM4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="DN4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="DO4" t="s">
         <v>5</v>
@@ -3317,19 +3319,19 @@
         <v>6</v>
       </c>
       <c r="DZ4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="EA4" t="s">
         <v>5</v>
       </c>
       <c r="EB4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="EC4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="ED4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EE4" t="s">
         <v>6</v>
@@ -3389,10 +3391,10 @@
         <v>6</v>
       </c>
       <c r="EX4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="EY4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="EZ4" t="s">
         <v>6</v>
@@ -3410,63 +3412,63 @@
         <v>5</v>
       </c>
       <c r="FE4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="FF4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="FG4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FH4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FI4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FJ4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FK4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FL4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FM4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FN4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FO4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FP4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FQ4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FR4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FS4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="FT4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="FU4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -3514,13 +3516,13 @@
         <v>30</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
         <v>6</v>
@@ -3535,46 +3537,46 @@
         <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO5" t="s">
         <v>3</v>
@@ -3586,13 +3588,13 @@
         <v>3</v>
       </c>
       <c r="AR5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AT5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AU5" t="s">
         <v>27</v>
@@ -3601,37 +3603,37 @@
         <v>5</v>
       </c>
       <c r="AW5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AY5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BC5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BD5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BH5" t="s">
         <v>6</v>
@@ -3718,34 +3720,34 @@
         <v>6</v>
       </c>
       <c r="CJ5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CK5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CL5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CM5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CN5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CO5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CP5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CQ5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CR5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CS5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CT5" t="s">
         <v>6</v>
@@ -3775,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="DC5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="DD5" t="s">
         <v>3</v>
@@ -3814,37 +3816,37 @@
         <v>6</v>
       </c>
       <c r="DP5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DQ5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DR5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DS5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DT5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DU5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DV5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DX5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DY5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DZ5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="EA5" t="s">
         <v>6</v>
@@ -3853,85 +3855,85 @@
         <v>5</v>
       </c>
       <c r="EC5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="ED5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="EE5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EF5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EG5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EH5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EI5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EJ5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EK5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EL5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EM5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EN5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EO5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EP5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EQ5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="ER5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="ES5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="ET5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EU5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EV5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EW5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EX5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="EY5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="EZ5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FA5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FB5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FC5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FD5" t="s">
         <v>6</v>
@@ -3982,7 +3984,7 @@
         <v>6</v>
       </c>
       <c r="FT5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="FU5" t="s">
         <v>5</v>
@@ -3990,7 +3992,7 @@
     </row>
     <row r="6" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -4035,19 +4037,19 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X6" t="s">
         <v>4</v>
@@ -4059,46 +4061,46 @@
         <v>4</v>
       </c>
       <c r="AA6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AM6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO6" t="s">
         <v>4</v>
@@ -4110,13 +4112,13 @@
         <v>4</v>
       </c>
       <c r="AR6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AT6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU6" t="s">
         <v>5</v>
@@ -4125,154 +4127,154 @@
         <v>6</v>
       </c>
       <c r="AW6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AY6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AZ6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BC6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BE6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BF6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BG6" t="s">
         <v>5</v>
       </c>
       <c r="BH6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BI6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BJ6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BK6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BL6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BM6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BN6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BO6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BP6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BQ6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BR6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BS6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BT6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BV6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BW6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BX6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BY6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CA6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CB6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CD6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CE6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CF6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CG6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CH6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CI6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CJ6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CK6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CT6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CU6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CV6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CW6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CX6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CY6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CZ6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DA6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DB6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DC6" t="s">
         <v>5</v>
@@ -4311,31 +4313,31 @@
         <v>6</v>
       </c>
       <c r="DO6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DZ6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="EA6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EB6" t="s">
         <v>6</v>
       </c>
       <c r="EC6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="ED6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EX6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="EY6" t="s">
         <v>5</v>
       </c>
       <c r="FD6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FE6" t="s">
         <v>6</v>
@@ -4344,43 +4346,43 @@
         <v>6</v>
       </c>
       <c r="FG6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FH6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FI6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FJ6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FK6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FL6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FM6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FN6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FO6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FP6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FQ6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FR6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FS6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FT6" t="s">
         <v>5</v>
@@ -4391,7 +4393,7 @@
     </row>
     <row r="7" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -4427,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q7" t="s">
         <v>18</v>
@@ -4436,13 +4438,13 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
         <v>6</v>
@@ -4508,19 +4510,19 @@
         <v>5</v>
       </c>
       <c r="AR7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AS7" t="s">
         <v>5</v>
       </c>
       <c r="AT7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU7" t="s">
         <v>6</v>
       </c>
       <c r="AV7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AW7" t="s">
         <v>6</v>
@@ -4556,10 +4558,10 @@
         <v>6</v>
       </c>
       <c r="CJ7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="CK7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="DC7" t="s">
         <v>6</v>
@@ -4592,16 +4594,16 @@
         <v>6</v>
       </c>
       <c r="DM7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DN7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DZ7" t="s">
         <v>5</v>
       </c>
       <c r="EB7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EC7" t="s">
         <v>5</v>
@@ -4616,21 +4618,21 @@
         <v>6</v>
       </c>
       <c r="FE7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FF7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FT7" t="s">
         <v>6</v>
       </c>
       <c r="FU7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -4663,7 +4665,7 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
@@ -4672,16 +4674,16 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X8" t="s">
         <v>6</v>
@@ -4693,46 +4695,46 @@
         <v>6</v>
       </c>
       <c r="AA8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AL8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AM8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AN8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AO8" t="s">
         <v>6</v>
@@ -4744,7 +4746,7 @@
         <v>6</v>
       </c>
       <c r="AR8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AS8" t="s">
         <v>6</v>
@@ -4753,76 +4755,76 @@
         <v>5</v>
       </c>
       <c r="AU8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AW8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AX8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AZ8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BA8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BB8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BC8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BD8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BE8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BG8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CJ8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CK8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DC8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DD8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DE8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DF8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DG8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DH8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DI8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DJ8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DK8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DL8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DZ8" t="s">
         <v>6</v>
@@ -4837,110 +4839,110 @@
         <v>6</v>
       </c>
       <c r="EY8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FT8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q9" t="s">
         <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S9" t="s">
         <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AO9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AP9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AQ9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR9" t="s">
         <v>5</v>
       </c>
       <c r="AS9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT9" t="s">
         <v>6</v>
       </c>
       <c r="CJ9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CK9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="DZ9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EC9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="ED9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EX9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q10" t="s">
         <v>21</v>
@@ -4949,33 +4951,33 @@
         <v>6</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="s">
         <v>6</v>
       </c>
       <c r="AT10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CJ10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CK10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q11" t="s">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T11" t="s">
         <v>6</v>
@@ -4984,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="AR11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CJ11" t="s">
         <v>6</v>
@@ -4995,47 +4997,47 @@
     </row>
     <row r="12" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CJ12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CK12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:177" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
